--- a/curation/draft/crf/crf_specialization_SU.xlsx
+++ b/curation/draft/crf/crf_specialization_SU.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\crf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2DF9CF-86A4-480B-8448-1778833D5F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB0E43E-C018-44DF-B06D-3CFB10D2FF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Collection_SU" sheetId="1" r:id="rId1"/>
+    <sheet name="CRF_SU" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_SU!$A$1:$AK$238</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CRF_SU!$A$1:$AK$238</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
@@ -773,15 +773,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -15555,7 +15547,7 @@
   </sheetData>
   <autoFilter ref="A1:AK238" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK172">
-      <sortCondition sortBy="cellColor" ref="A1:A172" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="A1:A172" dxfId="0"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
